--- a/Data Input Sheets/Smogon University Tournaments.xlsx
+++ b/Data Input Sheets/Smogon University Tournaments.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OU" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>Trainer</t>
   </si>
@@ -39,13 +39,241 @@
   </si>
   <si>
     <t>Dialogue</t>
+  </si>
+  <si>
+    <t>CT Tyrone</t>
+  </si>
+  <si>
+    <t>CT Annika</t>
+  </si>
+  <si>
+    <t>Hiker Rodney</t>
+  </si>
+  <si>
+    <t>Picknicker Suzie</t>
+  </si>
+  <si>
+    <t>Youngster Mika</t>
+  </si>
+  <si>
+    <t>Swimmer Frank</t>
+  </si>
+  <si>
+    <t>Swimmer Aiko</t>
+  </si>
+  <si>
+    <t>Trainer Serebii</t>
+  </si>
+  <si>
+    <t>Trainer Shofu</t>
+  </si>
+  <si>
+    <t>Trainer Pikawuu</t>
+  </si>
+  <si>
+    <t>Veteran David</t>
+  </si>
+  <si>
+    <t>Veteran Linnea</t>
+  </si>
+  <si>
+    <t>Veteran Ben</t>
+  </si>
+  <si>
+    <t>Veteran Becca</t>
+  </si>
+  <si>
+    <t>Trainer JWittz</t>
+  </si>
+  <si>
+    <t>DragonTamer Claude</t>
+  </si>
+  <si>
+    <t>Teacher Kari</t>
+  </si>
+  <si>
+    <t>Teacher Terri</t>
+  </si>
+  <si>
+    <t>Prefect Jon</t>
+  </si>
+  <si>
+    <t>Lass Stephanie</t>
+  </si>
+  <si>
+    <t>Worker Mario</t>
+  </si>
+  <si>
+    <t>Gentleman Link</t>
+  </si>
+  <si>
+    <t>Lady Zelda</t>
+  </si>
+  <si>
+    <t>Rocket Kim</t>
+  </si>
+  <si>
+    <t>Lady Peach</t>
+  </si>
+  <si>
+    <t>Burglar Akmed</t>
+  </si>
+  <si>
+    <t>Firebreather Amir</t>
+  </si>
+  <si>
+    <t>Swimmer Hyra</t>
+  </si>
+  <si>
+    <t>Crushgirl Claire</t>
+  </si>
+  <si>
+    <t>Tuber Noelle</t>
+  </si>
+  <si>
+    <t>Channler Natalia</t>
+  </si>
+  <si>
+    <t>Prefect Sylvester</t>
+  </si>
+  <si>
+    <t>Swimmer Vivi</t>
+  </si>
+  <si>
+    <t>Hiker Burley</t>
+  </si>
+  <si>
+    <t>Birdkeeper Earl</t>
+  </si>
+  <si>
+    <t>Psychic Djinn</t>
+  </si>
+  <si>
+    <t>Blackbelt Patty</t>
+  </si>
+  <si>
+    <t>Preschooler Billy</t>
+  </si>
+  <si>
+    <t>Preschooler Elsa</t>
+  </si>
+  <si>
+    <t>Preschooler Wang</t>
+  </si>
+  <si>
+    <t>Preschooler Moana</t>
+  </si>
+  <si>
+    <t>Student Samay</t>
+  </si>
+  <si>
+    <t>Student Anjali</t>
+  </si>
+  <si>
+    <t>Teacher Kent</t>
+  </si>
+  <si>
+    <t>Teacher Kathy</t>
+  </si>
+  <si>
+    <t>Lass Willa</t>
+  </si>
+  <si>
+    <t>Youngster Markos</t>
+  </si>
+  <si>
+    <t>Scientist Faye</t>
+  </si>
+  <si>
+    <t>Scientist Broku</t>
+  </si>
+  <si>
+    <t>Ranger Phoebe</t>
+  </si>
+  <si>
+    <t>Ranger Usain</t>
+  </si>
+  <si>
+    <t>Doctor Sai</t>
+  </si>
+  <si>
+    <t>Supernerd Calvin</t>
+  </si>
+  <si>
+    <t>Psychic Zella</t>
+  </si>
+  <si>
+    <t>Rocker Vic</t>
+  </si>
+  <si>
+    <t>CT Cal</t>
+  </si>
+  <si>
+    <t>DragonTamer Kirk</t>
+  </si>
+  <si>
+    <t>Youngster Archie</t>
+  </si>
+  <si>
+    <t>Firebreather Hassan</t>
+  </si>
+  <si>
+    <t>Swimmer Julie</t>
+  </si>
+  <si>
+    <t>Aroma Lady Lucy</t>
+  </si>
+  <si>
+    <t>Psychic Juan</t>
+  </si>
+  <si>
+    <t>Burglar Dirk</t>
+  </si>
+  <si>
+    <t>Hiker Shinzo</t>
+  </si>
+  <si>
+    <t>Camper Derek</t>
+  </si>
+  <si>
+    <t>Picknicker Betty</t>
+  </si>
+  <si>
+    <t>Bugcathcer Tyrese</t>
+  </si>
+  <si>
+    <t>Lass Lyla</t>
+  </si>
+  <si>
+    <t>Youngster Hubert</t>
+  </si>
+  <si>
+    <t>CT Cindy</t>
+  </si>
+  <si>
+    <t>Dragontamer Darko</t>
+  </si>
+  <si>
+    <t>Worker Jean</t>
+  </si>
+  <si>
+    <t>Rocker Florian</t>
+  </si>
+  <si>
+    <t>Channeler Madie</t>
+  </si>
+  <si>
+    <t>Blackbelt Aidyn</t>
+  </si>
+  <si>
+    <t>Birdkeeper Srikar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +289,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -78,13 +314,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,13 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -416,6 +704,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -425,13 +763,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -442,6 +783,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -451,13 +842,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -468,6 +862,46 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -477,13 +911,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -494,6 +931,51 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -503,13 +985,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -520,6 +1005,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -529,13 +1064,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -546,6 +1084,61 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -555,13 +1148,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -574,6 +1170,96 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Input Sheets/Smogon University Tournaments.xlsx
+++ b/Data Input Sheets/Smogon University Tournaments.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="155">
   <si>
     <t>Trainer</t>
   </si>
@@ -267,6 +267,234 @@
   </si>
   <si>
     <t>Birdkeeper Srikar</t>
+  </si>
+  <si>
+    <t>Politoed, Tebtacruel, Gliscor, Chansey, Dragonite, Ferrothorn</t>
+  </si>
+  <si>
+    <t>McharizardY, Venasaur, Elektros, Dankpras, Alakazam, Ninetails</t>
+  </si>
+  <si>
+    <t>Mtyranitar, Steelix, Lucario, Dolphnite, Mantine, Ash Greninja</t>
+  </si>
+  <si>
+    <t>Mabomasnow, frosslass, Beartic, Glaceon, Aurorous, Snorlax</t>
+  </si>
+  <si>
+    <t>Toxapex, Mvenusaur, celesteela, Tapu Lele, Tapu Koko, Crawdaunt</t>
+  </si>
+  <si>
+    <t>Lickilicky, Uxie, Crawdaunt, Magerna, Tapu Bulu, Hoopa Unbound</t>
+  </si>
+  <si>
+    <t>Msableye, Greninja, Lucario, Chansey, Celesteela, Amoongus</t>
+  </si>
+  <si>
+    <t>Celebii, Heatran, Mscizor, Pelliper, Garchomp, Tapu Koko</t>
+  </si>
+  <si>
+    <t>Darmanitan, Conkeldurr, Garchomp, Kartana, Cresselia, Mmetagross</t>
+  </si>
+  <si>
+    <t>Pikachu, Amarowak, Tornadus Therian, Ferrothorn, Pelliper, Mpinsir</t>
+  </si>
+  <si>
+    <t>Mmawile, Alpha Kyogre, Latias, Arceus Rock, Giratina Origin, Mewtwo</t>
+  </si>
+  <si>
+    <t>Mblazekin, Espeon, Mewtwo, Arceus Steel, Marshadow, Genesect</t>
+  </si>
+  <si>
+    <t>M Kangaskhan, Greninja, Salamance, Clefable, Jirachi, Mewtwo</t>
+  </si>
+  <si>
+    <t>Aegislash, Arceus Water, Dialga, Giratina, Lugia, Chansey</t>
+  </si>
+  <si>
+    <t>Lugia, Ho oh, Mewtwo, Mew, Celebi, Marshadow</t>
+  </si>
+  <si>
+    <t>Rayquaza, Zekrom, Resharim, M Latias, Latios, Zygarde</t>
+  </si>
+  <si>
+    <t>M Salamence, Arceus Water, Xerneas, Yvetal, Lunala, Omega Groudon</t>
+  </si>
+  <si>
+    <t>Pyukumuku, Chansey, Ferrothorn, Giratina, Hooh, M Sableye</t>
+  </si>
+  <si>
+    <t>Marshadow, Magearna, Arceus W, Ho oh, Primal Groudon, Lopunny</t>
+  </si>
+  <si>
+    <t>Deoxys Speed, Shaymin Sky, Omega Groudon, Yvetal, Arceus Ground, M Gengar</t>
+  </si>
+  <si>
+    <t>Aerodactyl, Bruxish, Feraligatr, Heliolisk, Goodra, Salazzle</t>
+  </si>
+  <si>
+    <t>Zoroark, Venasaur, Snorlax, M Glalie, Florges, Chesnaught</t>
+  </si>
+  <si>
+    <t>Pangoro, Durant, Flygon, Torkoal, Comfey, Dhelmise</t>
+  </si>
+  <si>
+    <t>Araquamid, Donphan, Rotom- Heat, Umbreon, Reunclus, Linoone</t>
+  </si>
+  <si>
+    <t>Honchkrow, Milotic, Heracross, Goodra, Gardevoir, Cloyster</t>
+  </si>
+  <si>
+    <t>Espeon, Frosslass, Galvantula, Gigalith, Torkoal, Blastoise</t>
+  </si>
+  <si>
+    <t>Doublade, Dragalage, Mantine, Jolteon, Swellow, Kommo-o</t>
+  </si>
+  <si>
+    <t>Shapedo, Bronzong, Escavalier, Flygon, Gligar, Roserade</t>
+  </si>
+  <si>
+    <t>Abomasnow, Charizard, gastrodon, Hitmontop, liepard, minior</t>
+  </si>
+  <si>
+    <t>Ninetails, passimian, shiinoctic, silvally fly, togedamaru, torterra</t>
+  </si>
+  <si>
+    <t>Toucannon, Tyrantrum, wishiwashi, A Raichu, Cofagrigous, Delphox</t>
+  </si>
+  <si>
+    <t>Aggron, clawitzer, emboar, liepard, lycanroc, primape</t>
+  </si>
+  <si>
+    <t>Lycanroc Night, Pallosand, Samurott, Silvally Fairy, Turtanator, A Persian</t>
+  </si>
+  <si>
+    <t>A Golem, Granbull, Drapion, Drampa, Cryogonal, Ludicolo</t>
+  </si>
+  <si>
+    <t>Oricorio Yellow, Pyroar, Qwilfish, Sceptile, Xatu, Zangoose</t>
+  </si>
+  <si>
+    <t>Sableye, Slowbro, Stoutland, Vaporeon, Hitmontop, Braviary</t>
+  </si>
+  <si>
+    <t>Absol, Claydol, Dodrio, Gallade, Klinklang, Machamp</t>
+  </si>
+  <si>
+    <t>Bagon, Blitzle, Cubone, Cleffa, Gulpin, Kricketot</t>
+  </si>
+  <si>
+    <t>Larvitar, mareep, embeer, panpour, porygon, skitty</t>
+  </si>
+  <si>
+    <t>Spidiver, swinub, treeko, vulpix, zorua, tyrouge</t>
+  </si>
+  <si>
+    <t>Scurret, ponyta, wooper, pineco, omanyte, ignatia</t>
+  </si>
+  <si>
+    <t>deerling, diglett, elektrike, eevee, goomy, houndour</t>
+  </si>
+  <si>
+    <t>joltik, goldeen, bronzor, fennekin, flabebe, caterpie</t>
+  </si>
+  <si>
+    <t>magikarp, charmander, baltoy, amaura, fletchling, elekid</t>
+  </si>
+  <si>
+    <t>Cardler, zigzagoon, wynaut, vullaby, voltorb, slugma</t>
+  </si>
+  <si>
+    <t>shroomish, shinx, seel, munchlax, pyukumuku, cutiefly</t>
+  </si>
+  <si>
+    <t>frillish, bunnelby, pikipek, jangmoo, alolan sandshrew, stufful</t>
+  </si>
+  <si>
+    <t>Tapu Koko, Celesteela, Gigalith, Arcanine, Gastrodon, Garchomp</t>
+  </si>
+  <si>
+    <t>Oranguru, Kartana, Milotic, Hariyama, Alolan Marowak, A Ninetails</t>
+  </si>
+  <si>
+    <t>Tapu Lele, Tapu Bulu, Porygon Z, Golduck, Pelliper, Alolan Muk</t>
+  </si>
+  <si>
+    <t>Tapu Koko, Porygon Z, M Gyarados, Arcanine, Garchomp, Snorlax</t>
+  </si>
+  <si>
+    <t>Mimikyu, Taou Fini, Snorlax, M Metagross, Alolan Persian, Buzzswole</t>
+  </si>
+  <si>
+    <t>Nihelgo, Porygon Z, Hariyama, Smeargle, Mudsdale, Pheromosa</t>
+  </si>
+  <si>
+    <t>Pachirisu, Gothirita, Gardevoir, M Gyarados, Talonflame, Garchomp</t>
+  </si>
+  <si>
+    <t>Raichu, Toucannon, Ferrothorn, Manectric, Rhydon, Dolphnite</t>
+  </si>
+  <si>
+    <t>Volquake, Combustox, Mistox, Phantasmeon, Serpentia, Bodanxious</t>
+  </si>
+  <si>
+    <t>Dankpras, Dunspragon, Psyzic, Killtank, Hawking, Mosquamber</t>
+  </si>
+  <si>
+    <t>Fukle, Mozambeak, Ggixie, Wrock, Cardinuckle, Gaarock</t>
+  </si>
+  <si>
+    <t>Panzar, Blazekin, Incineroar, Arcanine, Mcharizard, Shellgar</t>
+  </si>
+  <si>
+    <t>Dankpras, M Gyarados, Greninja, Milotic, Hydrid, Cloyster</t>
+  </si>
+  <si>
+    <t>M Venusaur, Alolan Exxegutor, Serperior, Cradlily, Breloom, Volquake</t>
+  </si>
+  <si>
+    <t>M Alakazam, Bronzong, Metagross, Gallade, Slowking, Espeon</t>
+  </si>
+  <si>
+    <t>Shrewdt, Scrafty, Zoroark, M Tyranitar, Heidragon, Spiritomb</t>
+  </si>
+  <si>
+    <t>Golem, M Aggron, Rhydon, Carbink, Tyrantrum, Archeops</t>
+  </si>
+  <si>
+    <t>Nidoking, A Dugtrio, Mammoswine, Hippowdon, M Garchomp, Gliscor</t>
+  </si>
+  <si>
+    <t>Drapion, Muk, M Beedrill, Crobat, Toxicroak, Dragalge</t>
+  </si>
+  <si>
+    <t>Mosquamber, Volcarona, Ninjask, Scolipede, Vivillion, M Scizor</t>
+  </si>
+  <si>
+    <t>Clefable, Sylveon, M Gardevoir, Mawile, Ggixie, Togekiss</t>
+  </si>
+  <si>
+    <t>Snorlax, M Kangaskhan, Chansey, Sawsbuck, Miltank, Stoutland</t>
+  </si>
+  <si>
+    <t>Frosslass, A Ninetails, Dankpras, M Glalie, Weavile, Aurorus</t>
+  </si>
+  <si>
+    <t>Dragonite, M Salamence, Garchomp, Goodra, Heidragon, Tyrantrum</t>
+  </si>
+  <si>
+    <t>M Steelix, Scizor, Lucario, Klefki, Skarmory, Aegislash</t>
+  </si>
+  <si>
+    <t>Luxray, M Ampharos, Electivire, Alolan Raichu, Galvantula, Elektross</t>
+  </si>
+  <si>
+    <t>M Gengar, Dhelmise, Silvally Ghost, Trevenant, Chandelure, Mimikyu</t>
+  </si>
+  <si>
+    <t>Machamp, M Lucario, Infernape, Conkeldur, Heracross, Scrafty</t>
+  </si>
+  <si>
+    <t>Starpator, M Pidgeot, Nimbuster, Gliscor, Gyarados, Togekiss</t>
   </si>
 </sst>
 </file>
@@ -687,12 +915,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,50 +939,80 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -766,12 +1025,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,50 +1049,80 @@
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -845,12 +1135,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,40 +1159,64 @@
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -914,12 +1229,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,45 +1253,72 @@
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -988,12 +1331,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,50 +1355,80 @@
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1067,12 +1441,13 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,55 +1465,88 @@
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1150,13 +1558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,90 +1583,144 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
